--- a/dtpu_configurations/only_integer16/50mhz/mxu_5x5/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_5x5/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>18.09586524963379</v>
+        <v>19.78383445739746</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.431034564971924</v>
+        <v>5.528735637664795</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.997179985046387</v>
+        <v>13.01597785949707</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>46.42856979370117</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>9.090909004211426</v>
